--- a/Publication/VacationVision.xlsx
+++ b/Publication/VacationVision.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petermoore/Documents/GitHub/VacationVision/Publication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{46626644-ED1F-1947-97DE-F636C6622CB3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{34D4DE4B-90AD-D147-BF84-FAF2E036AA4E}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{46626644-ED1F-1947-97DE-F636C6622CB3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{9F15061E-5524-A940-A785-CFF767A31BBC}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" activeTab="1" xr2:uid="{14EC6DA2-9A5B-2C4E-9778-4117A707BC64}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{14EC6DA2-9A5B-2C4E-9778-4117A707BC64}"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -26,23 +26,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Skill</t>
   </si>
   <si>
-    <t>No prior experience</t>
-  </si>
-  <si>
     <t>Prior exerience</t>
   </si>
   <si>
     <t>SQL</t>
   </si>
   <si>
-    <t xml:space="preserve">SQL on Linux </t>
-  </si>
-  <si>
     <t>Docker</t>
   </si>
   <si>
@@ -89,6 +83,24 @@
   </si>
   <si>
     <t>STA Travel</t>
+  </si>
+  <si>
+    <t>Weka</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t>Tweepy</t>
+  </si>
+  <si>
+    <t>Tensorflow</t>
+  </si>
+  <si>
+    <t>Keras</t>
   </si>
 </sst>
 </file>
@@ -451,92 +463,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB69716-C2C0-6643-88AD-6A98FE69D65F}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{2116034F-2FE5-5E30-AAC3-9F6C518EC3A8}">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{2116034F-2FE5-5E30-AAC3-9F6C518EC3A8}">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.9609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.38671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.31640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.31640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -549,7 +589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C90B90-E8EE-BB43-81DB-ED028B062463}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{A60BC4AE-F9F9-55D5-B449-650C0DD7806B}">
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{A60BC4AE-F9F9-55D5-B449-650C0DD7806B}">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -561,21 +601,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" t="str">
         <f>TRIM(MID(B2,FIND("twitter.com",B2)+LEN("twitter.com/"),1000))</f>
@@ -584,10 +624,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C4" si="0">TRIM(MID(B3,FIND("twitter.com",B3)+LEN("twitter.com/"),1000))</f>
@@ -596,10 +636,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
